--- a/手順書/Setup/BinaryConverterToolインストール手順書_V100.xlsx
+++ b/手順書/Setup/BinaryConverterToolインストール手順書_V100.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\base\BinaryConverterTool_V110\手順書\Setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\搜狗高速下载\temp\BinaryConverterTool\BinaryConverterTool\手順書\Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70ED6C6-7F7C-4561-B6A7-DF3557B39418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C14834-7B8C-4AED-8B3C-6BF61C995051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,8 +380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5553074" y="3007179"/>
-          <a:ext cx="3422198" cy="349704"/>
+          <a:off x="5488240" y="2891918"/>
+          <a:ext cx="3383778" cy="340100"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1481,8 +1481,8 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
@@ -1503,13 +1503,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7474322" y="1288677"/>
-          <a:ext cx="6152031" cy="1187824"/>
+          <a:off x="7474322" y="661147"/>
+          <a:ext cx="6152031" cy="1815354"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -37891"/>
-            <a:gd name="adj2" fmla="val 90508"/>
+            <a:gd name="adj1" fmla="val -39166"/>
+            <a:gd name="adj2" fmla="val 84953"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1635,6 +1635,64 @@
               <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>インストールファイルを選んでください</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>注：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ダウンロード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>HP:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>https://www.python.org/downloads/</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3016,7 +3074,7 @@
   <dimension ref="B2:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY22" sqref="AY22"/>
+      <selection activeCell="BX14" sqref="BX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
